--- a/Excel/FlockMetadataBulk.xlsx
+++ b/Excel/FlockMetadataBulk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217D7F4-C01C-452A-8830-E10C48D3CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF82728-47E8-45C6-A6B6-3E39B3D2EB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="84" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="51">
   <si>
     <t>INTEGRATOR_FLOCK_ID</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Bird</t>
+  </si>
+  <si>
+    <t>BIRD_SIZE</t>
+  </si>
+  <si>
+    <t>Small</t>
   </si>
 </sst>
 </file>
@@ -569,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL289"/>
+  <dimension ref="A1:AM289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2:AM289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,10 +612,10 @@
     <col min="35" max="35" width="7.796875" customWidth="1"/>
     <col min="36" max="36" width="17.796875" customWidth="1"/>
     <col min="37" max="37" width="25.796875" customWidth="1"/>
-    <col min="38" max="38" width="13.796875" customWidth="1"/>
+    <col min="38" max="38" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,8 +730,11 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="AL2" s="2">
         <v>1</v>
       </c>
+      <c r="AM2" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -924,8 +936,11 @@
       <c r="AL3" s="2">
         <v>1</v>
       </c>
+      <c r="AM3" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1024,8 +1039,11 @@
       <c r="AL4" s="2">
         <v>1</v>
       </c>
+      <c r="AM4" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1124,8 +1142,11 @@
       <c r="AL5" s="2">
         <v>1</v>
       </c>
+      <c r="AM5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1224,8 +1245,11 @@
       <c r="AL6" s="2">
         <v>1</v>
       </c>
+      <c r="AM6" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1324,8 +1348,11 @@
       <c r="AL7" s="2">
         <v>1</v>
       </c>
+      <c r="AM7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1424,8 +1451,11 @@
       <c r="AL8" s="2">
         <v>1</v>
       </c>
+      <c r="AM8" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1524,8 +1554,11 @@
       <c r="AL9" s="2">
         <v>1</v>
       </c>
+      <c r="AM9" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1624,8 +1657,11 @@
       <c r="AL10" s="2">
         <v>1</v>
       </c>
+      <c r="AM10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1724,8 +1760,11 @@
       <c r="AL11" s="2">
         <v>1</v>
       </c>
+      <c r="AM11" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1824,8 +1863,11 @@
       <c r="AL12" s="2">
         <v>1</v>
       </c>
+      <c r="AM12" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1924,8 +1966,11 @@
       <c r="AL13" s="2">
         <v>1</v>
       </c>
+      <c r="AM13" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2024,8 +2069,11 @@
       <c r="AL14" s="2">
         <v>1</v>
       </c>
+      <c r="AM14" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2124,8 +2172,11 @@
       <c r="AL15" s="2">
         <v>1</v>
       </c>
+      <c r="AM15" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2224,8 +2275,11 @@
       <c r="AL16" s="2">
         <v>1</v>
       </c>
+      <c r="AM16" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2324,8 +2378,11 @@
       <c r="AL17" s="2">
         <v>1</v>
       </c>
+      <c r="AM17" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2424,8 +2481,11 @@
       <c r="AL18" s="2">
         <v>1</v>
       </c>
+      <c r="AM18" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2524,8 +2584,11 @@
       <c r="AL19" s="2">
         <v>1</v>
       </c>
+      <c r="AM19" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2624,8 +2687,11 @@
       <c r="AL20" s="2">
         <v>1</v>
       </c>
+      <c r="AM20" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2724,8 +2790,11 @@
       <c r="AL21" s="2">
         <v>1</v>
       </c>
+      <c r="AM21" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2824,8 +2893,11 @@
       <c r="AL22" s="2">
         <v>1</v>
       </c>
+      <c r="AM22" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2924,8 +2996,11 @@
       <c r="AL23" s="2">
         <v>1</v>
       </c>
+      <c r="AM23" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -3024,8 +3099,11 @@
       <c r="AL24" s="2">
         <v>1</v>
       </c>
+      <c r="AM24" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3124,8 +3202,11 @@
       <c r="AL25" s="2">
         <v>1</v>
       </c>
+      <c r="AM25" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -3224,8 +3305,11 @@
       <c r="AL26" s="2">
         <v>1</v>
       </c>
+      <c r="AM26" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3324,8 +3408,11 @@
       <c r="AL27" s="2">
         <v>1</v>
       </c>
+      <c r="AM27" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3424,8 +3511,11 @@
       <c r="AL28" s="2">
         <v>1</v>
       </c>
+      <c r="AM28" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3524,8 +3614,11 @@
       <c r="AL29" s="2">
         <v>1</v>
       </c>
+      <c r="AM29" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3624,8 +3717,11 @@
       <c r="AL30" s="2">
         <v>1</v>
       </c>
+      <c r="AM30" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3724,8 +3820,11 @@
       <c r="AL31" s="2">
         <v>1</v>
       </c>
+      <c r="AM31" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3824,8 +3923,11 @@
       <c r="AL32" s="2">
         <v>1</v>
       </c>
+      <c r="AM32" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3924,8 +4026,11 @@
       <c r="AL33" s="2">
         <v>1</v>
       </c>
+      <c r="AM33" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4024,8 +4129,11 @@
       <c r="AL34" s="2">
         <v>1</v>
       </c>
+      <c r="AM34" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4124,8 +4232,11 @@
       <c r="AL35" s="2">
         <v>1</v>
       </c>
+      <c r="AM35" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -4224,8 +4335,11 @@
       <c r="AL36" s="2">
         <v>1</v>
       </c>
+      <c r="AM36" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -4324,8 +4438,11 @@
       <c r="AL37" s="2">
         <v>1</v>
       </c>
+      <c r="AM37" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -4424,8 +4541,11 @@
       <c r="AL38" s="2">
         <v>1</v>
       </c>
+      <c r="AM38" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -4524,8 +4644,11 @@
       <c r="AL39" s="2">
         <v>1</v>
       </c>
+      <c r="AM39" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4624,8 +4747,11 @@
       <c r="AL40" s="2">
         <v>1</v>
       </c>
+      <c r="AM40" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4724,8 +4850,11 @@
       <c r="AL41" s="2">
         <v>1</v>
       </c>
+      <c r="AM41" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4824,8 +4953,11 @@
       <c r="AL42" s="2">
         <v>1</v>
       </c>
+      <c r="AM42" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4924,8 +5056,11 @@
       <c r="AL43" s="2">
         <v>1</v>
       </c>
+      <c r="AM43" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -5024,8 +5159,11 @@
       <c r="AL44" s="2">
         <v>1</v>
       </c>
+      <c r="AM44" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5124,8 +5262,11 @@
       <c r="AL45" s="2">
         <v>1</v>
       </c>
+      <c r="AM45" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -5224,8 +5365,11 @@
       <c r="AL46" s="2">
         <v>1</v>
       </c>
+      <c r="AM46" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -5324,8 +5468,11 @@
       <c r="AL47" s="2">
         <v>1</v>
       </c>
+      <c r="AM47" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -5424,8 +5571,11 @@
       <c r="AL48" s="2">
         <v>1</v>
       </c>
+      <c r="AM48" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -5524,8 +5674,11 @@
       <c r="AL49" s="2">
         <v>1</v>
       </c>
+      <c r="AM49" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -5624,8 +5777,11 @@
       <c r="AL50" s="2">
         <v>1</v>
       </c>
+      <c r="AM50" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5724,8 +5880,11 @@
       <c r="AL51" s="2">
         <v>1</v>
       </c>
+      <c r="AM51" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -5824,8 +5983,11 @@
       <c r="AL52" s="2">
         <v>1</v>
       </c>
+      <c r="AM52" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5924,8 +6086,11 @@
       <c r="AL53" s="2">
         <v>1</v>
       </c>
+      <c r="AM53" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -6024,8 +6189,11 @@
       <c r="AL54" s="2">
         <v>1</v>
       </c>
+      <c r="AM54" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -6124,8 +6292,11 @@
       <c r="AL55" s="2">
         <v>1</v>
       </c>
+      <c r="AM55" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -6224,8 +6395,11 @@
       <c r="AL56" s="2">
         <v>1</v>
       </c>
+      <c r="AM56" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6324,8 +6498,11 @@
       <c r="AL57" s="2">
         <v>1</v>
       </c>
+      <c r="AM57" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="58" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -6424,8 +6601,11 @@
       <c r="AL58" s="2">
         <v>1</v>
       </c>
+      <c r="AM58" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -6524,8 +6704,11 @@
       <c r="AL59" s="2">
         <v>1</v>
       </c>
+      <c r="AM59" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -6624,8 +6807,11 @@
       <c r="AL60" s="2">
         <v>1</v>
       </c>
+      <c r="AM60" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -6724,8 +6910,11 @@
       <c r="AL61" s="2">
         <v>1</v>
       </c>
+      <c r="AM61" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -6824,8 +7013,11 @@
       <c r="AL62" s="2">
         <v>1</v>
       </c>
+      <c r="AM62" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -6924,8 +7116,11 @@
       <c r="AL63" s="2">
         <v>1</v>
       </c>
+      <c r="AM63" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -7024,8 +7219,11 @@
       <c r="AL64" s="2">
         <v>1</v>
       </c>
+      <c r="AM64" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -7124,8 +7322,11 @@
       <c r="AL65" s="2">
         <v>1</v>
       </c>
+      <c r="AM65" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -7224,8 +7425,11 @@
       <c r="AL66" s="2">
         <v>1</v>
       </c>
+      <c r="AM66" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -7324,8 +7528,11 @@
       <c r="AL67" s="2">
         <v>1</v>
       </c>
+      <c r="AM67" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -7424,8 +7631,11 @@
       <c r="AL68" s="2">
         <v>1</v>
       </c>
+      <c r="AM68" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -7524,8 +7734,11 @@
       <c r="AL69" s="2">
         <v>1</v>
       </c>
+      <c r="AM69" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -7624,8 +7837,11 @@
       <c r="AL70" s="2">
         <v>1</v>
       </c>
+      <c r="AM70" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>42</v>
       </c>
@@ -7724,8 +7940,11 @@
       <c r="AL71" s="2">
         <v>1</v>
       </c>
+      <c r="AM71" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -7824,8 +8043,11 @@
       <c r="AL72" s="2">
         <v>1</v>
       </c>
+      <c r="AM72" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>42</v>
       </c>
@@ -7924,8 +8146,11 @@
       <c r="AL73" s="2">
         <v>1</v>
       </c>
+      <c r="AM73" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -8024,8 +8249,11 @@
       <c r="AL74" s="2">
         <v>1</v>
       </c>
+      <c r="AM74" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>42</v>
       </c>
@@ -8124,8 +8352,11 @@
       <c r="AL75" s="2">
         <v>1</v>
       </c>
+      <c r="AM75" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -8224,8 +8455,11 @@
       <c r="AL76" s="2">
         <v>1</v>
       </c>
+      <c r="AM76" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>42</v>
       </c>
@@ -8324,8 +8558,11 @@
       <c r="AL77" s="2">
         <v>1</v>
       </c>
+      <c r="AM77" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="78" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -8424,8 +8661,11 @@
       <c r="AL78" s="2">
         <v>1</v>
       </c>
+      <c r="AM78" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -8524,8 +8764,11 @@
       <c r="AL79" s="2">
         <v>1</v>
       </c>
+      <c r="AM79" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -8624,8 +8867,11 @@
       <c r="AL80" s="2">
         <v>1</v>
       </c>
+      <c r="AM80" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>42</v>
       </c>
@@ -8724,8 +8970,11 @@
       <c r="AL81" s="2">
         <v>1</v>
       </c>
+      <c r="AM81" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -8824,8 +9073,11 @@
       <c r="AL82" s="2">
         <v>1</v>
       </c>
+      <c r="AM82" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -8924,8 +9176,11 @@
       <c r="AL83" s="2">
         <v>1</v>
       </c>
+      <c r="AM83" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="84" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -9024,8 +9279,11 @@
       <c r="AL84" s="2">
         <v>1</v>
       </c>
+      <c r="AM84" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -9124,8 +9382,11 @@
       <c r="AL85" s="2">
         <v>1</v>
       </c>
+      <c r="AM85" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -9224,8 +9485,11 @@
       <c r="AL86" s="2">
         <v>1</v>
       </c>
+      <c r="AM86" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="87" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>42</v>
       </c>
@@ -9324,8 +9588,11 @@
       <c r="AL87" s="2">
         <v>1</v>
       </c>
+      <c r="AM87" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="88" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -9424,8 +9691,11 @@
       <c r="AL88" s="2">
         <v>1</v>
       </c>
+      <c r="AM88" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="89" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -9524,8 +9794,11 @@
       <c r="AL89" s="2">
         <v>1</v>
       </c>
+      <c r="AM89" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="90" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -9624,8 +9897,11 @@
       <c r="AL90" s="2">
         <v>1</v>
       </c>
+      <c r="AM90" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="91" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>42</v>
       </c>
@@ -9724,8 +10000,11 @@
       <c r="AL91" s="2">
         <v>1</v>
       </c>
+      <c r="AM91" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="92" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -9824,8 +10103,11 @@
       <c r="AL92" s="2">
         <v>1</v>
       </c>
+      <c r="AM92" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="93" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -9924,8 +10206,11 @@
       <c r="AL93" s="2">
         <v>1</v>
       </c>
+      <c r="AM93" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="94" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -10024,8 +10309,11 @@
       <c r="AL94" s="2">
         <v>1</v>
       </c>
+      <c r="AM94" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="95" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -10124,8 +10412,11 @@
       <c r="AL95" s="2">
         <v>1</v>
       </c>
+      <c r="AM95" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="96" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -10224,8 +10515,11 @@
       <c r="AL96" s="2">
         <v>1</v>
       </c>
+      <c r="AM96" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="97" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -10324,8 +10618,11 @@
       <c r="AL97" s="2">
         <v>1</v>
       </c>
+      <c r="AM97" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="98" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -10424,8 +10721,11 @@
       <c r="AL98" s="2">
         <v>1</v>
       </c>
+      <c r="AM98" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="99" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>42</v>
       </c>
@@ -10524,8 +10824,11 @@
       <c r="AL99" s="2">
         <v>1</v>
       </c>
+      <c r="AM99" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="100" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -10624,8 +10927,11 @@
       <c r="AL100" s="2">
         <v>1</v>
       </c>
+      <c r="AM100" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="101" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -10724,8 +11030,11 @@
       <c r="AL101" s="2">
         <v>1</v>
       </c>
+      <c r="AM101" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="102" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -10824,8 +11133,11 @@
       <c r="AL102" s="2">
         <v>1</v>
       </c>
+      <c r="AM102" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="103" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -10924,8 +11236,11 @@
       <c r="AL103" s="2">
         <v>1</v>
       </c>
+      <c r="AM103" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="104" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -11024,8 +11339,11 @@
       <c r="AL104" s="2">
         <v>1</v>
       </c>
+      <c r="AM104" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="105" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>42</v>
       </c>
@@ -11124,8 +11442,11 @@
       <c r="AL105" s="2">
         <v>1</v>
       </c>
+      <c r="AM105" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="106" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -11224,8 +11545,11 @@
       <c r="AL106" s="2">
         <v>1</v>
       </c>
+      <c r="AM106" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="107" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -11324,8 +11648,11 @@
       <c r="AL107" s="2">
         <v>1</v>
       </c>
+      <c r="AM107" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="108" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -11424,8 +11751,11 @@
       <c r="AL108" s="2">
         <v>1</v>
       </c>
+      <c r="AM108" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="109" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>42</v>
       </c>
@@ -11524,8 +11854,11 @@
       <c r="AL109" s="2">
         <v>1</v>
       </c>
+      <c r="AM109" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="110" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -11624,8 +11957,11 @@
       <c r="AL110" s="2">
         <v>1</v>
       </c>
+      <c r="AM110" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="111" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>42</v>
       </c>
@@ -11724,8 +12060,11 @@
       <c r="AL111" s="2">
         <v>1</v>
       </c>
+      <c r="AM111" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="112" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -11824,8 +12163,11 @@
       <c r="AL112" s="2">
         <v>1</v>
       </c>
+      <c r="AM112" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>42</v>
       </c>
@@ -11924,8 +12266,11 @@
       <c r="AL113" s="2">
         <v>1</v>
       </c>
+      <c r="AM113" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -12024,8 +12369,11 @@
       <c r="AL114" s="2">
         <v>1</v>
       </c>
+      <c r="AM114" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -12124,8 +12472,11 @@
       <c r="AL115" s="2">
         <v>1</v>
       </c>
+      <c r="AM115" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="116" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -12224,8 +12575,11 @@
       <c r="AL116" s="2">
         <v>1</v>
       </c>
+      <c r="AM116" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -12324,8 +12678,11 @@
       <c r="AL117" s="2">
         <v>1</v>
       </c>
+      <c r="AM117" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="118" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -12424,8 +12781,11 @@
       <c r="AL118" s="2">
         <v>1</v>
       </c>
+      <c r="AM118" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -12524,8 +12884,11 @@
       <c r="AL119" s="2">
         <v>1</v>
       </c>
+      <c r="AM119" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="120" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -12624,8 +12987,11 @@
       <c r="AL120" s="2">
         <v>1</v>
       </c>
+      <c r="AM120" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -12724,8 +13090,11 @@
       <c r="AL121" s="2">
         <v>1</v>
       </c>
+      <c r="AM121" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="122" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -12824,8 +13193,11 @@
       <c r="AL122" s="2">
         <v>1</v>
       </c>
+      <c r="AM122" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>42</v>
       </c>
@@ -12924,8 +13296,11 @@
       <c r="AL123" s="2">
         <v>1</v>
       </c>
+      <c r="AM123" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="124" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -13024,8 +13399,11 @@
       <c r="AL124" s="2">
         <v>1</v>
       </c>
+      <c r="AM124" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="125" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>42</v>
       </c>
@@ -13124,8 +13502,11 @@
       <c r="AL125" s="2">
         <v>1</v>
       </c>
+      <c r="AM125" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="126" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -13224,8 +13605,11 @@
       <c r="AL126" s="2">
         <v>1</v>
       </c>
+      <c r="AM126" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="127" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>42</v>
       </c>
@@ -13324,8 +13708,11 @@
       <c r="AL127" s="2">
         <v>1</v>
       </c>
+      <c r="AM127" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="128" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -13424,8 +13811,11 @@
       <c r="AL128" s="2">
         <v>1</v>
       </c>
+      <c r="AM128" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="129" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -13524,8 +13914,11 @@
       <c r="AL129" s="2">
         <v>1</v>
       </c>
+      <c r="AM129" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="130" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -13624,8 +14017,11 @@
       <c r="AL130" s="2">
         <v>1</v>
       </c>
+      <c r="AM130" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="131" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -13724,8 +14120,11 @@
       <c r="AL131" s="2">
         <v>1</v>
       </c>
+      <c r="AM131" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="132" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -13824,8 +14223,11 @@
       <c r="AL132" s="2">
         <v>1</v>
       </c>
+      <c r="AM132" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="133" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -13924,8 +14326,11 @@
       <c r="AL133" s="2">
         <v>1</v>
       </c>
+      <c r="AM133" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="134" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -14024,8 +14429,11 @@
       <c r="AL134" s="2">
         <v>1</v>
       </c>
+      <c r="AM134" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="135" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -14124,8 +14532,11 @@
       <c r="AL135" s="2">
         <v>1</v>
       </c>
+      <c r="AM135" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="136" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -14224,8 +14635,11 @@
       <c r="AL136" s="2">
         <v>1</v>
       </c>
+      <c r="AM136" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="137" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -14324,8 +14738,11 @@
       <c r="AL137" s="2">
         <v>1</v>
       </c>
+      <c r="AM137" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="138" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -14424,8 +14841,11 @@
       <c r="AL138" s="2">
         <v>1</v>
       </c>
+      <c r="AM138" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="139" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -14524,8 +14944,11 @@
       <c r="AL139" s="2">
         <v>1</v>
       </c>
+      <c r="AM139" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="140" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -14624,8 +15047,11 @@
       <c r="AL140" s="2">
         <v>1</v>
       </c>
+      <c r="AM140" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="141" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>42</v>
       </c>
@@ -14724,8 +15150,11 @@
       <c r="AL141" s="2">
         <v>1</v>
       </c>
+      <c r="AM141" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="142" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -14824,8 +15253,11 @@
       <c r="AL142" s="2">
         <v>1</v>
       </c>
+      <c r="AM142" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="143" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -14924,8 +15356,11 @@
       <c r="AL143" s="2">
         <v>1</v>
       </c>
+      <c r="AM143" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="144" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -15024,8 +15459,11 @@
       <c r="AL144" s="2">
         <v>1</v>
       </c>
+      <c r="AM144" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="145" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -15124,8 +15562,11 @@
       <c r="AL145" s="2">
         <v>1</v>
       </c>
+      <c r="AM145" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="146" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -15224,8 +15665,11 @@
       <c r="AL146" s="2">
         <v>1</v>
       </c>
+      <c r="AM146" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="147" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -15324,8 +15768,11 @@
       <c r="AL147" s="2">
         <v>1</v>
       </c>
+      <c r="AM147" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="148" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -15424,8 +15871,11 @@
       <c r="AL148" s="2">
         <v>1</v>
       </c>
+      <c r="AM148" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="149" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -15524,8 +15974,11 @@
       <c r="AL149" s="2">
         <v>1</v>
       </c>
+      <c r="AM149" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="150" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>41</v>
       </c>
@@ -15624,8 +16077,11 @@
       <c r="AL150" s="2">
         <v>1</v>
       </c>
+      <c r="AM150" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="151" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -15724,8 +16180,11 @@
       <c r="AL151" s="2">
         <v>1</v>
       </c>
+      <c r="AM151" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="152" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -15824,8 +16283,11 @@
       <c r="AL152" s="2">
         <v>1</v>
       </c>
+      <c r="AM152" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="153" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -15924,8 +16386,11 @@
       <c r="AL153" s="2">
         <v>1</v>
       </c>
+      <c r="AM153" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="154" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>41</v>
       </c>
@@ -16024,8 +16489,11 @@
       <c r="AL154" s="2">
         <v>1</v>
       </c>
+      <c r="AM154" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="155" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -16124,8 +16592,11 @@
       <c r="AL155" s="2">
         <v>1</v>
       </c>
+      <c r="AM155" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="156" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>41</v>
       </c>
@@ -16224,8 +16695,11 @@
       <c r="AL156" s="2">
         <v>1</v>
       </c>
+      <c r="AM156" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="157" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -16324,8 +16798,11 @@
       <c r="AL157" s="2">
         <v>1</v>
       </c>
+      <c r="AM157" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="158" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>41</v>
       </c>
@@ -16424,8 +16901,11 @@
       <c r="AL158" s="2">
         <v>1</v>
       </c>
+      <c r="AM158" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="159" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -16524,8 +17004,11 @@
       <c r="AL159" s="2">
         <v>1</v>
       </c>
+      <c r="AM159" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="160" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -16624,8 +17107,11 @@
       <c r="AL160" s="2">
         <v>1</v>
       </c>
+      <c r="AM160" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="161" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -16724,8 +17210,11 @@
       <c r="AL161" s="2">
         <v>1</v>
       </c>
+      <c r="AM161" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="162" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>41</v>
       </c>
@@ -16824,8 +17313,11 @@
       <c r="AL162" s="2">
         <v>1</v>
       </c>
+      <c r="AM162" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="163" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -16924,8 +17416,11 @@
       <c r="AL163" s="2">
         <v>1</v>
       </c>
+      <c r="AM163" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="164" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -17024,8 +17519,11 @@
       <c r="AL164" s="2">
         <v>1</v>
       </c>
+      <c r="AM164" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="165" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -17124,8 +17622,11 @@
       <c r="AL165" s="2">
         <v>1</v>
       </c>
+      <c r="AM165" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="166" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>41</v>
       </c>
@@ -17224,8 +17725,11 @@
       <c r="AL166" s="2">
         <v>1</v>
       </c>
+      <c r="AM166" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="167" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -17324,8 +17828,11 @@
       <c r="AL167" s="2">
         <v>1</v>
       </c>
+      <c r="AM167" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="168" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -17424,8 +17931,11 @@
       <c r="AL168" s="2">
         <v>1</v>
       </c>
+      <c r="AM168" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="169" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -17524,8 +18034,11 @@
       <c r="AL169" s="2">
         <v>1</v>
       </c>
+      <c r="AM169" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="170" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -17624,8 +18137,11 @@
       <c r="AL170" s="2">
         <v>1</v>
       </c>
+      <c r="AM170" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="171" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -17724,8 +18240,11 @@
       <c r="AL171" s="2">
         <v>1</v>
       </c>
+      <c r="AM171" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="172" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>41</v>
       </c>
@@ -17824,8 +18343,11 @@
       <c r="AL172" s="2">
         <v>1</v>
       </c>
+      <c r="AM172" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="173" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -17924,8 +18446,11 @@
       <c r="AL173" s="2">
         <v>1</v>
       </c>
+      <c r="AM173" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="174" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>41</v>
       </c>
@@ -18024,8 +18549,11 @@
       <c r="AL174" s="2">
         <v>1</v>
       </c>
+      <c r="AM174" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="175" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -18124,8 +18652,11 @@
       <c r="AL175" s="2">
         <v>1</v>
       </c>
+      <c r="AM175" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="176" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>41</v>
       </c>
@@ -18224,8 +18755,11 @@
       <c r="AL176" s="2">
         <v>1</v>
       </c>
+      <c r="AM176" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="177" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>42</v>
       </c>
@@ -18324,8 +18858,11 @@
       <c r="AL177" s="2">
         <v>1</v>
       </c>
+      <c r="AM177" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="178" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -18424,8 +18961,11 @@
       <c r="AL178" s="2">
         <v>1</v>
       </c>
+      <c r="AM178" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="179" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>42</v>
       </c>
@@ -18524,8 +19064,11 @@
       <c r="AL179" s="2">
         <v>1</v>
       </c>
+      <c r="AM179" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="180" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -18624,8 +19167,11 @@
       <c r="AL180" s="2">
         <v>1</v>
       </c>
+      <c r="AM180" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="181" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>42</v>
       </c>
@@ -18724,8 +19270,11 @@
       <c r="AL181" s="2">
         <v>1</v>
       </c>
+      <c r="AM181" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="182" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -18824,8 +19373,11 @@
       <c r="AL182" s="2">
         <v>1</v>
       </c>
+      <c r="AM182" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="183" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>42</v>
       </c>
@@ -18924,8 +19476,11 @@
       <c r="AL183" s="2">
         <v>1</v>
       </c>
+      <c r="AM183" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="184" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -19024,8 +19579,11 @@
       <c r="AL184" s="2">
         <v>1</v>
       </c>
+      <c r="AM184" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="185" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>42</v>
       </c>
@@ -19124,8 +19682,11 @@
       <c r="AL185" s="2">
         <v>1</v>
       </c>
+      <c r="AM185" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="186" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -19224,8 +19785,11 @@
       <c r="AL186" s="2">
         <v>1</v>
       </c>
+      <c r="AM186" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="187" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>42</v>
       </c>
@@ -19324,8 +19888,11 @@
       <c r="AL187" s="2">
         <v>1</v>
       </c>
+      <c r="AM187" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="188" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>41</v>
       </c>
@@ -19424,8 +19991,11 @@
       <c r="AL188" s="2">
         <v>1</v>
       </c>
+      <c r="AM188" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="189" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>42</v>
       </c>
@@ -19524,8 +20094,11 @@
       <c r="AL189" s="2">
         <v>1</v>
       </c>
+      <c r="AM189" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="190" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>41</v>
       </c>
@@ -19624,8 +20197,11 @@
       <c r="AL190" s="2">
         <v>1</v>
       </c>
+      <c r="AM190" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="191" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>42</v>
       </c>
@@ -19724,8 +20300,11 @@
       <c r="AL191" s="2">
         <v>1</v>
       </c>
+      <c r="AM191" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="192" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>41</v>
       </c>
@@ -19824,8 +20403,11 @@
       <c r="AL192" s="2">
         <v>1</v>
       </c>
+      <c r="AM192" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="193" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>42</v>
       </c>
@@ -19924,8 +20506,11 @@
       <c r="AL193" s="2">
         <v>1</v>
       </c>
+      <c r="AM193" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="194" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -20024,8 +20609,11 @@
       <c r="AL194" s="2">
         <v>1</v>
       </c>
+      <c r="AM194" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="195" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -20124,8 +20712,11 @@
       <c r="AL195" s="2">
         <v>1</v>
       </c>
+      <c r="AM195" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="196" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -20224,8 +20815,11 @@
       <c r="AL196" s="2">
         <v>1</v>
       </c>
+      <c r="AM196" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="197" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -20324,8 +20918,11 @@
       <c r="AL197" s="2">
         <v>1</v>
       </c>
+      <c r="AM197" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="198" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>41</v>
       </c>
@@ -20424,8 +21021,11 @@
       <c r="AL198" s="2">
         <v>1</v>
       </c>
+      <c r="AM198" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="199" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -20524,8 +21124,11 @@
       <c r="AL199" s="2">
         <v>1</v>
       </c>
+      <c r="AM199" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="200" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -20624,8 +21227,11 @@
       <c r="AL200" s="2">
         <v>1</v>
       </c>
+      <c r="AM200" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="201" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -20724,8 +21330,11 @@
       <c r="AL201" s="2">
         <v>1</v>
       </c>
+      <c r="AM201" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="202" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -20824,8 +21433,11 @@
       <c r="AL202" s="2">
         <v>1</v>
       </c>
+      <c r="AM202" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="203" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -20924,8 +21536,11 @@
       <c r="AL203" s="2">
         <v>1</v>
       </c>
+      <c r="AM203" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="204" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -21024,8 +21639,11 @@
       <c r="AL204" s="2">
         <v>1</v>
       </c>
+      <c r="AM204" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="205" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>42</v>
       </c>
@@ -21124,8 +21742,11 @@
       <c r="AL205" s="2">
         <v>1</v>
       </c>
+      <c r="AM205" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="206" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -21224,8 +21845,11 @@
       <c r="AL206" s="2">
         <v>1</v>
       </c>
+      <c r="AM206" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="207" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>42</v>
       </c>
@@ -21324,8 +21948,11 @@
       <c r="AL207" s="2">
         <v>1</v>
       </c>
+      <c r="AM207" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="208" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -21424,8 +22051,11 @@
       <c r="AL208" s="2">
         <v>1</v>
       </c>
+      <c r="AM208" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="209" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>42</v>
       </c>
@@ -21524,8 +22154,11 @@
       <c r="AL209" s="2">
         <v>1</v>
       </c>
+      <c r="AM209" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="210" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -21624,8 +22257,11 @@
       <c r="AL210" s="2">
         <v>1</v>
       </c>
+      <c r="AM210" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="211" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -21724,8 +22360,11 @@
       <c r="AL211" s="2">
         <v>1</v>
       </c>
+      <c r="AM211" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="212" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>41</v>
       </c>
@@ -21824,8 +22463,11 @@
       <c r="AL212" s="2">
         <v>1</v>
       </c>
+      <c r="AM212" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="213" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -21924,8 +22566,11 @@
       <c r="AL213" s="2">
         <v>1</v>
       </c>
+      <c r="AM213" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="214" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>41</v>
       </c>
@@ -22024,8 +22669,11 @@
       <c r="AL214" s="2">
         <v>1</v>
       </c>
+      <c r="AM214" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="215" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -22124,8 +22772,11 @@
       <c r="AL215" s="2">
         <v>1</v>
       </c>
+      <c r="AM215" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="216" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>41</v>
       </c>
@@ -22224,8 +22875,11 @@
       <c r="AL216" s="2">
         <v>1</v>
       </c>
+      <c r="AM216" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="217" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -22324,8 +22978,11 @@
       <c r="AL217" s="2">
         <v>1</v>
       </c>
+      <c r="AM217" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="218" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>41</v>
       </c>
@@ -22424,8 +23081,11 @@
       <c r="AL218" s="2">
         <v>1</v>
       </c>
+      <c r="AM218" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="219" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -22524,8 +23184,11 @@
       <c r="AL219" s="2">
         <v>1</v>
       </c>
+      <c r="AM219" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="220" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>41</v>
       </c>
@@ -22624,8 +23287,11 @@
       <c r="AL220" s="2">
         <v>1</v>
       </c>
+      <c r="AM220" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="221" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -22724,8 +23390,11 @@
       <c r="AL221" s="2">
         <v>1</v>
       </c>
+      <c r="AM221" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="222" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>41</v>
       </c>
@@ -22824,8 +23493,11 @@
       <c r="AL222" s="2">
         <v>1</v>
       </c>
+      <c r="AM222" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="223" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -22924,8 +23596,11 @@
       <c r="AL223" s="2">
         <v>1</v>
       </c>
+      <c r="AM223" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="224" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>41</v>
       </c>
@@ -23024,8 +23699,11 @@
       <c r="AL224" s="2">
         <v>1</v>
       </c>
+      <c r="AM224" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="225" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -23124,8 +23802,11 @@
       <c r="AL225" s="2">
         <v>1</v>
       </c>
+      <c r="AM225" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="226" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>41</v>
       </c>
@@ -23224,8 +23905,11 @@
       <c r="AL226" s="2">
         <v>1</v>
       </c>
+      <c r="AM226" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="227" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -23324,8 +24008,11 @@
       <c r="AL227" s="2">
         <v>1</v>
       </c>
+      <c r="AM227" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="228" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -23424,8 +24111,11 @@
       <c r="AL228" s="2">
         <v>1</v>
       </c>
+      <c r="AM228" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="229" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>42</v>
       </c>
@@ -23524,8 +24214,11 @@
       <c r="AL229" s="2">
         <v>1</v>
       </c>
+      <c r="AM229" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="230" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>41</v>
       </c>
@@ -23624,8 +24317,11 @@
       <c r="AL230" s="2">
         <v>1</v>
       </c>
+      <c r="AM230" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="231" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>42</v>
       </c>
@@ -23724,8 +24420,11 @@
       <c r="AL231" s="2">
         <v>1</v>
       </c>
+      <c r="AM231" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="232" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>41</v>
       </c>
@@ -23824,8 +24523,11 @@
       <c r="AL232" s="2">
         <v>1</v>
       </c>
+      <c r="AM232" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="233" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>42</v>
       </c>
@@ -23924,8 +24626,11 @@
       <c r="AL233" s="2">
         <v>1</v>
       </c>
+      <c r="AM233" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="234" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>41</v>
       </c>
@@ -24024,8 +24729,11 @@
       <c r="AL234" s="2">
         <v>1</v>
       </c>
+      <c r="AM234" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="235" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>42</v>
       </c>
@@ -24124,8 +24832,11 @@
       <c r="AL235" s="2">
         <v>1</v>
       </c>
+      <c r="AM235" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="236" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -24224,8 +24935,11 @@
       <c r="AL236" s="2">
         <v>1</v>
       </c>
+      <c r="AM236" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="237" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>42</v>
       </c>
@@ -24324,8 +25038,11 @@
       <c r="AL237" s="2">
         <v>1</v>
       </c>
+      <c r="AM237" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="238" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>41</v>
       </c>
@@ -24424,8 +25141,11 @@
       <c r="AL238" s="2">
         <v>1</v>
       </c>
+      <c r="AM238" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="239" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>42</v>
       </c>
@@ -24524,8 +25244,11 @@
       <c r="AL239" s="2">
         <v>1</v>
       </c>
+      <c r="AM239" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="240" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>41</v>
       </c>
@@ -24624,8 +25347,11 @@
       <c r="AL240" s="2">
         <v>1</v>
       </c>
+      <c r="AM240" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="241" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>42</v>
       </c>
@@ -24724,8 +25450,11 @@
       <c r="AL241" s="2">
         <v>1</v>
       </c>
+      <c r="AM241" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="242" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>41</v>
       </c>
@@ -24824,8 +25553,11 @@
       <c r="AL242" s="2">
         <v>1</v>
       </c>
+      <c r="AM242" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="243" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>42</v>
       </c>
@@ -24924,8 +25656,11 @@
       <c r="AL243" s="2">
         <v>1</v>
       </c>
+      <c r="AM243" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="244" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>41</v>
       </c>
@@ -25024,8 +25759,11 @@
       <c r="AL244" s="2">
         <v>1</v>
       </c>
+      <c r="AM244" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="245" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>42</v>
       </c>
@@ -25124,8 +25862,11 @@
       <c r="AL245" s="2">
         <v>1</v>
       </c>
+      <c r="AM245" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="246" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>41</v>
       </c>
@@ -25224,8 +25965,11 @@
       <c r="AL246" s="2">
         <v>1</v>
       </c>
+      <c r="AM246" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="247" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>42</v>
       </c>
@@ -25324,8 +26068,11 @@
       <c r="AL247" s="2">
         <v>1</v>
       </c>
+      <c r="AM247" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="248" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>41</v>
       </c>
@@ -25424,8 +26171,11 @@
       <c r="AL248" s="2">
         <v>1</v>
       </c>
+      <c r="AM248" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="249" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>42</v>
       </c>
@@ -25524,8 +26274,11 @@
       <c r="AL249" s="2">
         <v>1</v>
       </c>
+      <c r="AM249" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="250" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>41</v>
       </c>
@@ -25624,8 +26377,11 @@
       <c r="AL250" s="2">
         <v>1</v>
       </c>
+      <c r="AM250" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="251" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>42</v>
       </c>
@@ -25724,8 +26480,11 @@
       <c r="AL251" s="2">
         <v>1</v>
       </c>
+      <c r="AM251" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="252" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>41</v>
       </c>
@@ -25824,8 +26583,11 @@
       <c r="AL252" s="2">
         <v>1</v>
       </c>
+      <c r="AM252" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="253" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>42</v>
       </c>
@@ -25924,8 +26686,11 @@
       <c r="AL253" s="2">
         <v>1</v>
       </c>
+      <c r="AM253" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="254" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>41</v>
       </c>
@@ -26024,8 +26789,11 @@
       <c r="AL254" s="2">
         <v>1</v>
       </c>
+      <c r="AM254" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="255" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>42</v>
       </c>
@@ -26124,8 +26892,11 @@
       <c r="AL255" s="2">
         <v>1</v>
       </c>
+      <c r="AM255" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="256" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>41</v>
       </c>
@@ -26224,8 +26995,11 @@
       <c r="AL256" s="2">
         <v>1</v>
       </c>
+      <c r="AM256" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="257" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>42</v>
       </c>
@@ -26324,8 +27098,11 @@
       <c r="AL257" s="2">
         <v>1</v>
       </c>
+      <c r="AM257" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="258" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>41</v>
       </c>
@@ -26424,8 +27201,11 @@
       <c r="AL258" s="2">
         <v>1</v>
       </c>
+      <c r="AM258" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="259" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>42</v>
       </c>
@@ -26524,8 +27304,11 @@
       <c r="AL259" s="2">
         <v>1</v>
       </c>
+      <c r="AM259" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="260" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>41</v>
       </c>
@@ -26624,8 +27407,11 @@
       <c r="AL260" s="2">
         <v>1</v>
       </c>
+      <c r="AM260" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="261" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>42</v>
       </c>
@@ -26724,8 +27510,11 @@
       <c r="AL261" s="2">
         <v>1</v>
       </c>
+      <c r="AM261" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="262" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>41</v>
       </c>
@@ -26824,8 +27613,11 @@
       <c r="AL262" s="2">
         <v>1</v>
       </c>
+      <c r="AM262" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="263" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>42</v>
       </c>
@@ -26924,8 +27716,11 @@
       <c r="AL263" s="2">
         <v>1</v>
       </c>
+      <c r="AM263" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="264" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>41</v>
       </c>
@@ -27024,8 +27819,11 @@
       <c r="AL264" s="2">
         <v>1</v>
       </c>
+      <c r="AM264" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="265" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>42</v>
       </c>
@@ -27124,8 +27922,11 @@
       <c r="AL265" s="2">
         <v>1</v>
       </c>
+      <c r="AM265" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="266" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>41</v>
       </c>
@@ -27224,8 +28025,11 @@
       <c r="AL266" s="2">
         <v>1</v>
       </c>
+      <c r="AM266" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="267" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>42</v>
       </c>
@@ -27324,8 +28128,11 @@
       <c r="AL267" s="2">
         <v>1</v>
       </c>
+      <c r="AM267" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="268" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>41</v>
       </c>
@@ -27424,8 +28231,11 @@
       <c r="AL268" s="2">
         <v>1</v>
       </c>
+      <c r="AM268" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="269" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>42</v>
       </c>
@@ -27524,8 +28334,11 @@
       <c r="AL269" s="2">
         <v>1</v>
       </c>
+      <c r="AM269" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="270" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>41</v>
       </c>
@@ -27624,8 +28437,11 @@
       <c r="AL270" s="2">
         <v>1</v>
       </c>
+      <c r="AM270" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="271" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>42</v>
       </c>
@@ -27724,8 +28540,11 @@
       <c r="AL271" s="2">
         <v>1</v>
       </c>
+      <c r="AM271" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="272" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -27824,8 +28643,11 @@
       <c r="AL272" s="2">
         <v>1</v>
       </c>
+      <c r="AM272" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="273" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>42</v>
       </c>
@@ -27924,8 +28746,11 @@
       <c r="AL273" s="2">
         <v>1</v>
       </c>
+      <c r="AM273" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="274" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>41</v>
       </c>
@@ -28024,8 +28849,11 @@
       <c r="AL274" s="2">
         <v>1</v>
       </c>
+      <c r="AM274" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="275" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>42</v>
       </c>
@@ -28124,8 +28952,11 @@
       <c r="AL275" s="2">
         <v>1</v>
       </c>
+      <c r="AM275" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="276" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -28224,8 +29055,11 @@
       <c r="AL276" s="2">
         <v>1</v>
       </c>
+      <c r="AM276" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="277" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>42</v>
       </c>
@@ -28324,8 +29158,11 @@
       <c r="AL277" s="2">
         <v>1</v>
       </c>
+      <c r="AM277" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="278" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>41</v>
       </c>
@@ -28424,8 +29261,11 @@
       <c r="AL278" s="2">
         <v>1</v>
       </c>
+      <c r="AM278" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="279" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>42</v>
       </c>
@@ -28524,8 +29364,11 @@
       <c r="AL279" s="2">
         <v>1</v>
       </c>
+      <c r="AM279" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="280" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>41</v>
       </c>
@@ -28624,8 +29467,11 @@
       <c r="AL280" s="2">
         <v>1</v>
       </c>
+      <c r="AM280" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="281" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>42</v>
       </c>
@@ -28724,8 +29570,11 @@
       <c r="AL281" s="2">
         <v>1</v>
       </c>
+      <c r="AM281" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="282" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>41</v>
       </c>
@@ -28824,8 +29673,11 @@
       <c r="AL282" s="2">
         <v>1</v>
       </c>
+      <c r="AM282" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="283" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>42</v>
       </c>
@@ -28924,8 +29776,11 @@
       <c r="AL283" s="2">
         <v>1</v>
       </c>
+      <c r="AM283" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="284" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -29024,8 +29879,11 @@
       <c r="AL284" s="2">
         <v>1</v>
       </c>
+      <c r="AM284" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="285" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>42</v>
       </c>
@@ -29124,8 +29982,11 @@
       <c r="AL285" s="2">
         <v>1</v>
       </c>
+      <c r="AM285" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="286" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -29224,8 +30085,11 @@
       <c r="AL286" s="2">
         <v>1</v>
       </c>
+      <c r="AM286" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="287" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>42</v>
       </c>
@@ -29324,8 +30188,11 @@
       <c r="AL287" s="2">
         <v>1</v>
       </c>
+      <c r="AM287" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="288" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>41</v>
       </c>
@@ -29424,8 +30291,11 @@
       <c r="AL288" s="2">
         <v>1</v>
       </c>
+      <c r="AM288" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="289" spans="1:38" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:39" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -29523,6 +30393,9 @@
       <c r="AK289" s="2"/>
       <c r="AL289" s="2">
         <v>1</v>
+      </c>
+      <c r="AM289" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
